--- a/dati_2023/03.xlsx
+++ b/dati_2023/03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\R\elezioni\dati_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7DADC3-1EF3-4215-BEBF-788CE7B7EB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D963C364-EF2F-4C0D-9A46-DE9D8430ADA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t>LISTA</t>
   </si>
@@ -77,9 +77,6 @@
     <t>DX</t>
   </si>
   <si>
-    <t>SX</t>
-  </si>
-  <si>
     <t>FRAZ_UNI</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t>EV - SI</t>
   </si>
   <si>
-    <t>Altri 1</t>
-  </si>
-  <si>
     <t>Altri 2</t>
   </si>
   <si>
@@ -152,7 +146,28 @@
     <t>Sondaggio</t>
   </si>
   <si>
-    <t>TECNE 21/7/22</t>
+    <t>Impegno civico</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>Alternativa per l'Italia</t>
+  </si>
+  <si>
+    <t>ApI</t>
+  </si>
+  <si>
+    <t>Italia Sovrana e Popolare</t>
+  </si>
+  <si>
+    <t>ISP</t>
+  </si>
+  <si>
+    <t>BiDiMedia 5 ago</t>
+  </si>
+  <si>
+    <t>SX-M5S</t>
   </si>
 </sst>
 </file>
@@ -199,11 +214,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -485,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -519,19 +535,19 @@
         <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -539,10 +555,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1">
-        <v>0.23499999999999999</v>
+        <v>0.245</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -551,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>0.23799999999999999</v>
+        <v>0.245</v>
       </c>
       <c r="G2" s="2">
         <v>0.26</v>
@@ -572,19 +588,19 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1">
-        <v>0.23100000000000001</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>0.221</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="G3" s="2">
         <v>0.3</v>
@@ -596,7 +612,7 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" s="3"/>
     </row>
@@ -608,7 +624,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>0.14599999999999999</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -617,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="G4" s="2">
         <v>0.32</v>
@@ -638,16 +654,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
-        <v>9.4E-2</v>
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>0.112</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="G5" s="2">
         <v>0.23</v>
@@ -659,7 +678,7 @@
         <v>60</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5" s="3"/>
     </row>
@@ -668,10 +687,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>0.106</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -680,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>7.3999999999999996E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="G6" s="2">
         <v>0.28000000000000003</v>
@@ -701,16 +720,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1">
-        <v>4.9000000000000002E-2</v>
+        <v>0.06</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>4.9000000000000002E-2</v>
+        <v>0.06</v>
       </c>
       <c r="G7" s="2">
         <v>0.4</v>
@@ -722,28 +744,28 @@
         <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>3.7999999999999999E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="G8" s="2">
         <v>0.4</v>
@@ -755,25 +777,25 @@
         <v>120</v>
       </c>
       <c r="J8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>2.7E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="G9" s="2">
         <v>0.35</v>
@@ -782,28 +804,28 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="G10" s="2">
         <v>0.35</v>
@@ -812,43 +834,56 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
       </c>
       <c r="C11" s="1">
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G11" s="2">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11">
+        <v>255</v>
+      </c>
       <c r="J11" t="s">
-        <v>36</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
       </c>
       <c r="C12" s="1">
         <v>0.01</v>
       </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
@@ -856,27 +891,34 @@
         <v>0.01</v>
       </c>
       <c r="G12" s="2">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>55</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
       </c>
       <c r="C13" s="1">
-        <v>0.01</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>0.01</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="G13" s="2">
         <v>0.25</v>
@@ -884,13 +926,17 @@
       <c r="H13" t="b">
         <v>0</v>
       </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
       <c r="J13" t="s">
-        <v>36</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1">
         <v>0.01</v>
@@ -908,21 +954,21 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="G15" s="2">
         <v>0.25</v>
@@ -931,12 +977,61 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>36</v>
-      </c>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F19" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J11">
-    <sortCondition descending="1" ref="C2:C11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J18">
+    <sortCondition descending="1" ref="C2:C18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -952,27 +1047,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>38</v>
+      <c r="A2" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B2" s="2">
-        <v>0.45</v>
+        <v>0.375</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>